--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/需求拆解/需求拆解方案1/因卓教育项目计划_对应_程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/需求拆解/需求拆解方案1/因卓教育项目计划_对应_程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="3" r:id="rId1"/>
@@ -2188,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2212,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2523,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
